--- a/Interface IC Library/Interface IC Library.xlsx
+++ b/Interface IC Library/Interface IC Library.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Optocoupler Digital" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Solid State Relay" sheetId="3" r:id="rId3"/>
     <sheet name="USB Upstream Port Filter" sheetId="4" r:id="rId4"/>
     <sheet name="CAN Transceiver" sheetId="6" r:id="rId5"/>
+    <sheet name="RS-485 Transceiver" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="90">
   <si>
     <t>ID</t>
   </si>
@@ -85,9 +86,6 @@
     <t>Interface IC Pad Lib.PcbLib</t>
   </si>
   <si>
-    <t>Avago</t>
-  </si>
-  <si>
     <t>ACPL-M21L Low Power, 5 MBd Digital CMOS Optocoupler</t>
   </si>
   <si>
@@ -257,6 +255,45 @@
   </si>
   <si>
     <t>SO-8 Narrow</t>
+  </si>
+  <si>
+    <t>TLP2361</t>
+  </si>
+  <si>
+    <t>15 Mbit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Broadcom</t>
+  </si>
+  <si>
+    <t>TLP2361 BufferInverter logic type 15 MBd Digital Optocoupler</t>
+  </si>
+  <si>
+    <t>TLP2355</t>
+  </si>
+  <si>
+    <t>TLP2355 Buffer logic type, 5 MBd Digital Optocoupler</t>
+  </si>
+  <si>
+    <t>SO-6 5pin</t>
+  </si>
+  <si>
+    <t>MAX485</t>
+  </si>
+  <si>
+    <t>Low-power transceivers for RS-485 and RS-422</t>
+  </si>
+  <si>
+    <t>2.5 Mbit</t>
+  </si>
+  <si>
+    <t>4.75 V ... 5.25 V</t>
+  </si>
+  <si>
+    <t>MAX483ESA</t>
+  </si>
+  <si>
+    <t>Maxim</t>
   </si>
 </sst>
 </file>
@@ -613,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -633,7 +670,7 @@
     <col min="11" max="11" width="11.90625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="54.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="62.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="65.81640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="76.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -648,7 +685,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
@@ -720,18 +757,118 @@
         <v>13</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="N2" t="str">
-        <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\ACPL-M21(Avago).pdf")</f>
-        <v>C:\Altium Libraries\Interface IC Library\DataSheet\ACPL-M21(Avago).pdf</v>
+        <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\ACPL-M21(Broadcom).pdf")</f>
+        <v>C:\Altium Libraries\Interface IC Library\DataSheet\ACPL-M21(Broadcom).pdf</v>
       </c>
       <c r="O2" t="str">
         <f>CONCATENATE(M2," (", C2,", ", E2,", ", J2, ")")</f>
         <v>ACPL-M21L Low Power, 5 MBd Digital CMOS Optocoupler (5 Mbit, 2.7 V ... 5.5 V, ACPL-M21L)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="str">
+        <f>CONCATENATE(B3," (",C3,", ",E3," )")</f>
+        <v>TLP2355 (5 Mbit, 2.7 V ... 5.5 V )</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" t="str">
+        <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\TLP2355(Toshiba).pdf")</f>
+        <v>C:\Altium Libraries\Interface IC Library\DataSheet\TLP2355(Toshiba).pdf</v>
+      </c>
+      <c r="O3" t="str">
+        <f>CONCATENATE(M3," (", C3,", ", E3,", ", J3, ")")</f>
+        <v>TLP2355 Buffer logic type, 5 MBd Digital Optocoupler (5 Mbit, 2.7 V ... 5.5 V, SO-6 5pin)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="str">
+        <f>CONCATENATE(B4," (",C4,", ",E4," )")</f>
+        <v>TLP2361 (15 Mbit, 2.7 V ... 5.5 V )</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" t="str">
+        <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\TLP2361(Toshiba).pdf")</f>
+        <v>C:\Altium Libraries\Interface IC Library\DataSheet\TLP2361(Toshiba).pdf</v>
+      </c>
+      <c r="O4" t="str">
+        <f>CONCATENATE(M4," (", C4,", ", E4,", ", J4, ")")</f>
+        <v>TLP2361 BufferInverter logic type 15 MBd Digital Optocoupler (15 Mbit, 2.7 V ... 5.5 V, SO-6 5pin)</v>
       </c>
     </row>
   </sheetData>
@@ -744,7 +881,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -774,13 +911,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -818,16 +955,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE(B2," (",D2,", ",E2,")")</f>
@@ -837,22 +974,22 @@
         <v>18</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
         <v>19</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="N2" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\TLP521(Toshiba).pdf")</f>
@@ -865,19 +1002,19 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" t="str">
         <f>CONCATENATE(B3," (",D3,", ",E3,")")</f>
@@ -887,22 +1024,22 @@
         <v>18</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="N3" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\LTV-354T(LiteOn).pdf")</f>
@@ -915,19 +1052,19 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" t="str">
         <f>CONCATENATE(B4," (",D4,", ",E4,")")</f>
@@ -937,22 +1074,22 @@
         <v>18</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N4" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\TLP183(Toshiba).pdf")</f>
@@ -1003,13 +1140,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -1047,16 +1184,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE(B2," (",D2,", ",E2," )")</f>
@@ -1066,22 +1203,22 @@
         <v>18</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
         <v>19</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="N2" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\CPC1018N(IXYS).pdf")</f>
@@ -1103,7 +1240,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1115,14 +1252,14 @@
     <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="64" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="75.6328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="101.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="70.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="97.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
@@ -1130,19 +1267,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -1177,22 +1314,22 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="G2" s="4" t="str">
         <f>CONCATENATE(C2," (",D2," ,","Contact Discharge ",F2," )")</f>
@@ -1202,22 +1339,22 @@
         <v>18</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O2" s="4" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\STF203-xx series (Semtech).pdf")</f>
@@ -1230,22 +1367,22 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="G3" s="4" t="str">
         <f>CONCATENATE(C3," (",D3," ,","Contact Discharge ",F3," )")</f>
@@ -1255,22 +1392,22 @@
         <v>18</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O3" s="4" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\STF203-xx series (Semtech).pdf")</f>
@@ -1283,22 +1420,22 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="G4" s="4" t="str">
         <f>CONCATENATE(C4," (",D4," ,","Contact Discharge ",F4," )")</f>
@@ -1308,22 +1445,22 @@
         <v>18</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O4" s="4" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\STF203-xx series (Semtech).pdf")</f>
@@ -1343,8 +1480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1377,7 +1514,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
@@ -1418,7 +1555,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>15</v>
@@ -1427,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE(B2," (",C2,", ",E2," )")</f>
@@ -1437,22 +1574,22 @@
         <v>18</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s">
         <v>19</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="N2" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\ISO1044(TI).pdf")</f>
@@ -1461,6 +1598,135 @@
       <c r="O2" t="str">
         <f>CONCATENATE(M2," (", C2,", ", E2,", ", J2, ")")</f>
         <v>ISO1044 Isolated CAN FD Transceiver in Small Package (5 Mbit, 1.7 V ... 5.5 V, SO-8 Narrow)</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="46.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="57" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="77.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" t="str">
+        <f>CONCATENATE(B2," (",C2,", ",E2," )")</f>
+        <v>MAX485 (2.5 Mbit, 4.75 V ... 5.25 V )</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" t="str">
+        <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\MAX485(Maxim).pdf")</f>
+        <v>C:\Altium Libraries\Interface IC Library\DataSheet\MAX485(Maxim).pdf</v>
+      </c>
+      <c r="O2" t="str">
+        <f>CONCATENATE(M2," (", C2,", ", E2,", ", J2, ")")</f>
+        <v>Low-power transceivers for RS-485 and RS-422 (2.5 Mbit, 4.75 V ... 5.25 V, SO-8 Narrow)</v>
       </c>
     </row>
   </sheetData>
